--- a/R/elsa/dados_elsa/Lucia_Andrade_variáveis.xlsx
+++ b/R/elsa/dados_elsa/Lucia_Andrade_variáveis.xlsx
@@ -2461,16 +2461,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2493,6475 +2497,6475 @@
   </sheetPr>
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B202" activeCellId="0" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="79.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="D33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="D36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="D37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="s">
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="s">
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="0" t="s">
+      <c r="D43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" s="0" t="s">
+      <c r="D44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="D45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" s="0" t="s">
+      <c r="D46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="0" t="s">
+      <c r="D47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" s="0" t="s">
+      <c r="D48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="s">
+      <c r="D50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="D51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="D54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="0" t="s">
+      <c r="D55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" s="0" t="s">
+      <c r="D56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" s="0" t="s">
+      <c r="D57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="0" t="s">
+      <c r="D59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="0" t="s">
+      <c r="D60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="D61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="D63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" s="0" t="s">
+      <c r="D64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="0" t="s">
+      <c r="D66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" s="0" t="s">
+      <c r="D67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E68" s="0" t="s">
+      <c r="D68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="0" t="s">
+      <c r="D70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="0" t="s">
+      <c r="D71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="0" t="s">
+      <c r="D72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" s="0" t="s">
+      <c r="D73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="0" t="s">
+      <c r="D75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="0" t="s">
+      <c r="D76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E77" s="0" t="s">
+      <c r="D77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E78" s="0" t="s">
+      <c r="D78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D81" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="0" t="s">
+      <c r="D81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="0" t="s">
+      <c r="D82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="0" t="s">
+      <c r="D83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="0" t="s">
+      <c r="D84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="0" t="s">
+      <c r="D85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="0" t="s">
+      <c r="D86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D87" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" s="0" t="s">
+      <c r="D87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E88" s="0" t="s">
+      <c r="D88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E89" s="0" t="s">
+      <c r="D89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E90" s="0" t="s">
+      <c r="D90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E91" s="0" t="s">
+      <c r="D91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D92" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E92" s="0" t="s">
+      <c r="D92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D93" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E93" s="0" t="s">
+      <c r="D93" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D94" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E94" s="0" t="s">
+      <c r="D94" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D95" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E95" s="0" t="s">
+      <c r="D95" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" s="0" t="s">
+      <c r="D97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E98" s="0" t="s">
+      <c r="D98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E99" s="0" t="s">
+      <c r="D99" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" s="0" t="s">
+      <c r="D101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="0" t="s">
+      <c r="D102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" s="0" t="s">
+      <c r="D103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" s="0" t="s">
+      <c r="D104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D105" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E105" s="0" t="s">
+      <c r="D105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D106" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E106" s="0" t="s">
+      <c r="D106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="0" t="s">
+      <c r="D108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" s="0" t="s">
+      <c r="D109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="0" t="s">
+      <c r="D110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D111" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="0" t="s">
+      <c r="D111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D112" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="0" t="s">
+      <c r="D112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" s="0" t="s">
+      <c r="D113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" s="0" t="s">
+      <c r="D114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D115" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="0" t="s">
+      <c r="D115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" s="0" t="s">
+      <c r="D116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D117" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" s="0" t="s">
+      <c r="D117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D118" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="0" t="s">
+      <c r="D118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D119" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="0" t="s">
+      <c r="D119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" s="0" t="s">
+      <c r="D120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D121" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E121" s="0" t="s">
+      <c r="D121" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E122" s="0" t="s">
+      <c r="D122" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D123" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" s="0" t="s">
+      <c r="D123" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D124" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E124" s="0" t="s">
+      <c r="D124" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D125" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E125" s="0" t="s">
+      <c r="D125" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D126" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E126" s="0" t="s">
+      <c r="D126" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D127" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" s="0" t="s">
+      <c r="D127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D128" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E128" s="0" t="s">
+      <c r="D128" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D129" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E129" s="0" t="s">
+      <c r="D129" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D130" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E130" s="0" t="s">
+      <c r="D130" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D131" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E131" s="0" t="s">
+      <c r="D131" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D132" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E132" s="0" t="s">
+      <c r="D132" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D133" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E133" s="0" t="s">
+      <c r="D133" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D134" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E134" s="0" t="s">
+      <c r="D134" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D135" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E135" s="0" t="s">
+      <c r="D135" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D136" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E136" s="0" t="s">
+      <c r="D136" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D137" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E137" s="0" t="s">
+      <c r="D137" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D138" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E138" s="0" t="s">
+      <c r="D138" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E139" s="0" t="s">
+      <c r="D139" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D140" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E140" s="0" t="s">
+      <c r="D140" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D141" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E141" s="0" t="s">
+      <c r="D141" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D142" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E142" s="0" t="s">
+      <c r="D142" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D143" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E143" s="0" t="s">
+      <c r="D143" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D144" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E144" s="0" t="s">
+      <c r="D144" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D145" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E145" s="0" t="s">
+      <c r="D145" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D146" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E146" s="0" t="s">
+      <c r="D146" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D148" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="0" t="s">
+      <c r="D148" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D149" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E149" s="0" t="s">
+      <c r="D149" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" s="0" t="s">
+      <c r="D151" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D152" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" s="0" t="s">
+      <c r="D152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D153" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" s="0" t="s">
+      <c r="D153" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D154" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E154" s="0" t="s">
+      <c r="D154" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D155" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E155" s="0" t="s">
+      <c r="D155" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D156" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E156" s="0" t="s">
+      <c r="D156" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D157" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E157" s="0" t="s">
+      <c r="D157" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D158" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E158" s="0" t="s">
+      <c r="D158" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D159" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E159" s="0" t="s">
+      <c r="D159" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D161" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E161" s="0" t="s">
+      <c r="D161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D162" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E162" s="0" t="s">
+      <c r="D162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D163" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E163" s="0" t="s">
+      <c r="D163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D164" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" s="0" t="s">
+      <c r="D164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D165" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" s="0" t="s">
+      <c r="D165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D166" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E166" s="0" t="s">
+      <c r="D166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D167" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E167" s="0" t="s">
+      <c r="D167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D168" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" s="0" t="s">
+      <c r="D168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D169" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" s="0" t="s">
+      <c r="D169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D170" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" s="0" t="s">
+      <c r="D170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D171" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" s="0" t="s">
+      <c r="D171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D172" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" s="0" t="s">
+      <c r="D172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D173" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E173" s="0" t="s">
+      <c r="D173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D174" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E174" s="0" t="s">
+      <c r="D174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D175" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E175" s="0" t="s">
+      <c r="D175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D176" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E176" s="0" t="s">
+      <c r="D176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D177" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E177" s="0" t="s">
+      <c r="D177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D178" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E178" s="0" t="s">
+      <c r="D178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D179" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E179" s="0" t="s">
+      <c r="D179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D180" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E180" s="0" t="s">
+      <c r="D180" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D181" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E181" s="0" t="s">
+      <c r="D181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D182" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E182" s="0" t="s">
+      <c r="D182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D183" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E183" s="0" t="s">
+      <c r="D183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D184" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E184" s="0" t="s">
+      <c r="D184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D185" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E185" s="0" t="s">
+      <c r="D185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D186" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E186" s="0" t="s">
+      <c r="D186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D188" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" s="0" t="s">
+      <c r="D188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D189" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" s="0" t="s">
+      <c r="D189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D191" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" s="0" t="s">
+      <c r="D191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D192" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E192" s="0" t="s">
+      <c r="D192" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D193" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" s="0" t="s">
+      <c r="D193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D194" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E194" s="0" t="s">
+      <c r="D194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D195" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E195" s="0" t="s">
+      <c r="D195" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D196" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" s="0" t="s">
+      <c r="D196" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D197" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E197" s="0" t="s">
+      <c r="D197" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D198" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E198" s="0" t="s">
+      <c r="D198" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D199" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="0" t="s">
+      <c r="D199" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D200" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" s="0" t="s">
+      <c r="D200" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D201" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" s="0" t="s">
+      <c r="D201" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D202" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E202" s="0" t="s">
+      <c r="D202" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D203" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E203" s="0" t="s">
+      <c r="D203" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D204" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E204" s="0" t="s">
+      <c r="D204" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D205" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E205" s="0" t="s">
+      <c r="D205" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D206" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E206" s="0" t="s">
+      <c r="D206" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D207" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E207" s="0" t="s">
+      <c r="D207" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D208" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E208" s="0" t="s">
+      <c r="D208" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E209" s="0" t="s">
+      <c r="D209" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E210" s="0" t="s">
+      <c r="D210" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D211" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="0" t="s">
+      <c r="D211" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D212" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E212" s="0" t="s">
+      <c r="D212" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D213" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E213" s="0" t="s">
+      <c r="D213" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D214" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E214" s="0" t="s">
+      <c r="D214" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D215" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E215" s="0" t="s">
+      <c r="D215" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D216" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E216" s="0" t="s">
+      <c r="D216" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D217" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E217" s="0" t="s">
+      <c r="D217" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D218" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E218" s="0" t="s">
+      <c r="D218" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D219" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E219" s="0" t="s">
+      <c r="D219" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D220" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E220" s="0" t="s">
+      <c r="D220" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D221" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E221" s="0" t="s">
+      <c r="D221" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D222" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E222" s="0" t="s">
+      <c r="D222" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D223" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E223" s="0" t="s">
+      <c r="D223" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D224" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E224" s="0" t="s">
+      <c r="D224" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D225" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E225" s="0" t="s">
+      <c r="D225" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D226" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E226" s="0" t="s">
+      <c r="D226" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D227" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E227" s="0" t="s">
+      <c r="D227" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D228" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E228" s="0" t="s">
+      <c r="D228" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E228" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D229" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E229" s="0" t="s">
+      <c r="D229" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D230" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E230" s="0" t="s">
+      <c r="D230" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D231" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" s="0" t="s">
+      <c r="D231" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D232" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E232" s="0" t="s">
+      <c r="D232" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D233" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E233" s="0" t="s">
+      <c r="D233" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="A234" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D234" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" s="0" t="s">
+      <c r="D234" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D235" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E235" s="0" t="s">
+      <c r="D235" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D236" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E236" s="0" t="s">
+      <c r="D236" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D237" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E237" s="0" t="s">
+      <c r="D237" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D238" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E238" s="0" t="s">
+      <c r="D238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="C239" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D239" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E239" s="0" t="s">
+      <c r="D239" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="A240" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="C240" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D240" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E240" s="0" t="s">
+      <c r="D240" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C241" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D241" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E241" s="0" t="s">
+      <c r="D241" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="A242" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D242" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E242" s="0" t="s">
+      <c r="D242" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="A243" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D243" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E243" s="0" t="s">
+      <c r="D243" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="A244" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D244" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E244" s="0" t="s">
+      <c r="D244" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+      <c r="A245" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B245" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="C245" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D245" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E245" s="0" t="s">
+      <c r="D245" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+      <c r="A246" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D246" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E246" s="0" t="s">
+      <c r="D246" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="A247" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="C247" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D247" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E247" s="0" t="s">
+      <c r="D247" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+      <c r="A248" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D248" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E248" s="0" t="s">
+      <c r="D248" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+      <c r="A249" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C249" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D249" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E249" s="0" t="s">
+      <c r="D249" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+      <c r="A250" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B250" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="C250" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D250" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E250" s="0" t="s">
+      <c r="D250" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+      <c r="A251" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D251" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E251" s="0" t="s">
+      <c r="D251" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+      <c r="A252" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D252" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E252" s="0" t="s">
+      <c r="D252" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="A253" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D253" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E253" s="0" t="s">
+      <c r="D253" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+      <c r="A254" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D254" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E254" s="0" t="s">
+      <c r="D254" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="A255" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B255" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D255" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E255" s="0" t="s">
+      <c r="D255" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="A256" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B256" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D256" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E256" s="0" t="s">
+      <c r="D256" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="A257" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B257" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D257" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E257" s="0" t="s">
+      <c r="D257" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="A258" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="B258" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D258" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E258" s="0" t="s">
+      <c r="D258" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="A259" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B259" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D259" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E259" s="0" t="s">
+      <c r="D259" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="A260" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="B260" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="C260" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D260" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E260" s="0" t="s">
+      <c r="D260" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="A261" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B261" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="C261" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D261" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E261" s="0" t="s">
+      <c r="D261" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E261" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="A262" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="B262" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="C262" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D262" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E262" s="0" t="s">
+      <c r="D262" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="A263" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C263" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D263" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E263" s="0" t="s">
+      <c r="D263" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="A264" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="B264" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="C264" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D264" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E264" s="0" t="s">
+      <c r="D264" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+      <c r="A265" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="B265" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="C265" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D265" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E265" s="0" t="s">
+      <c r="D265" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="A266" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="B266" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D266" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E266" s="0" t="s">
+      <c r="D266" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+      <c r="A267" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="B267" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D267" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E267" s="0" t="s">
+      <c r="D267" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+      <c r="A268" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="B268" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D268" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E268" s="0" t="s">
+      <c r="D268" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="A269" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="B269" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D269" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E269" s="0" t="s">
+      <c r="D269" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="A270" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="B270" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D270" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E270" s="0" t="s">
+      <c r="D270" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="A271" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="B271" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D271" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E271" s="0" t="s">
+      <c r="D271" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="A272" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="B272" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D272" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E272" s="0" t="s">
+      <c r="D272" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+      <c r="A273" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="B273" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D273" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E273" s="0" t="s">
+      <c r="D273" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E273" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+      <c r="A274" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="B274" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D274" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E274" s="0" t="s">
+      <c r="D274" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+      <c r="A275" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="B275" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="C275" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D275" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E275" s="0" t="s">
+      <c r="D275" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="A276" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="B276" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C276" s="0" t="s">
+      <c r="C276" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D276" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E276" s="0" t="s">
+      <c r="D276" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="A277" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="B277" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="C277" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D277" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E277" s="0" t="s">
+      <c r="D277" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E277" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="A278" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="B278" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D278" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E278" s="0" t="s">
+      <c r="D278" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+      <c r="A279" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="B279" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D279" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E279" s="0" t="s">
+      <c r="D279" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="A280" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="B280" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D280" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E280" s="0" t="s">
+      <c r="D280" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="A281" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="B281" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D281" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E281" s="0" t="s">
+      <c r="D281" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
+      <c r="A282" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="B282" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D282" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E282" s="0" t="s">
+      <c r="D282" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="A283" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="B283" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D283" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E283" s="0" t="s">
+      <c r="D283" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="A284" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="B284" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="C284" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D284" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E284" s="0" t="s">
+      <c r="D284" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="A285" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="B285" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="C285" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D285" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E285" s="0" t="s">
+      <c r="D285" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="A286" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="B286" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="C286" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D286" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E286" s="0" t="s">
+      <c r="D286" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
+      <c r="A287" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="B287" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="C287" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D287" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E287" s="0" t="s">
+      <c r="D287" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+      <c r="A288" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="B288" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="C288" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D288" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E288" s="0" t="s">
+      <c r="D288" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="A289" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="B289" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="C289" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D289" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E289" s="0" t="s">
+      <c r="D289" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+      <c r="A290" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="B290" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="C290" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D290" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E290" s="0" t="s">
+      <c r="D290" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+      <c r="A291" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="B291" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="C291" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D291" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E291" s="0" t="s">
+      <c r="D291" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E291" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+      <c r="A292" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="B292" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C292" s="0" t="s">
+      <c r="C292" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D292" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E292" s="0" t="s">
+      <c r="D292" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
+      <c r="A293" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="B293" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="C293" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D293" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E293" s="0" t="s">
+      <c r="D293" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E293" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
+      <c r="A294" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="B294" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="C294" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D294" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E294" s="0" t="s">
+      <c r="D294" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E294" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+      <c r="A295" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="B295" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="C295" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D295" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E295" s="0" t="s">
+      <c r="D295" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E295" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
+      <c r="A296" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="B296" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C296" s="0" t="s">
+      <c r="C296" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D296" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E296" s="0" t="s">
+      <c r="D296" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
+      <c r="A297" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="B297" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C297" s="0" t="s">
+      <c r="C297" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D297" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E297" s="0" t="s">
+      <c r="D297" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
+      <c r="A298" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="B298" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C298" s="0" t="s">
+      <c r="C298" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D298" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E298" s="0" t="s">
+      <c r="D298" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E298" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
+      <c r="A299" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="B299" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C299" s="0" t="s">
+      <c r="C299" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D299" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E299" s="0" t="s">
+      <c r="D299" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E299" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+      <c r="A300" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="B300" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C300" s="0" t="s">
+      <c r="C300" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D300" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E300" s="0" t="s">
+      <c r="D300" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E300" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="A301" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="B301" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C301" s="0" t="s">
+      <c r="C301" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D301" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E301" s="0" t="s">
+      <c r="D301" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E301" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+      <c r="A302" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="B302" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D302" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E302" s="0" t="s">
+      <c r="D302" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E302" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+      <c r="A303" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="B303" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D303" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E303" s="0" t="s">
+      <c r="D303" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
+      <c r="A304" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="B304" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C304" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D304" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E304" s="0" t="s">
+      <c r="D304" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
+      <c r="A305" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="B305" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="C305" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D305" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E305" s="0" t="s">
+      <c r="D305" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E305" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+      <c r="A306" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="B306" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="C306" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D306" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E306" s="0" t="s">
+      <c r="D306" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E306" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
+      <c r="A307" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="B307" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="C307" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D307" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E307" s="0" t="s">
+      <c r="D307" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
+      <c r="A308" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="B308" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C308" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D308" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E308" s="0" t="s">
+      <c r="D308" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
+      <c r="A309" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="B309" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C309" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D309" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E309" s="0" t="s">
+      <c r="D309" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E309" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
+      <c r="A310" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="B310" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C310" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D310" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E310" s="0" t="s">
+      <c r="D310" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E310" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+      <c r="A311" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="B311" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C311" s="0" t="s">
+      <c r="C311" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D311" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E311" s="0" t="s">
+      <c r="D311" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E311" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
+      <c r="A312" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="B312" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C312" s="0" t="s">
+      <c r="C312" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D312" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E312" s="0" t="s">
+      <c r="D312" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E312" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
+      <c r="A313" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="B313" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C313" s="0" t="s">
+      <c r="C313" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D313" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E313" s="0" t="s">
+      <c r="D313" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E313" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+      <c r="A314" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="B314" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="C314" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D314" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E314" s="0" t="s">
+      <c r="D314" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E314" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
+      <c r="A315" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="B315" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C315" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D315" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E315" s="0" t="s">
+      <c r="D315" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E315" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
+      <c r="A316" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="B316" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C316" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D316" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E316" s="0" t="s">
+      <c r="D316" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+      <c r="A317" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="B317" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C317" s="0" t="s">
+      <c r="C317" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D317" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E317" s="0" t="s">
+      <c r="D317" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E317" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
+      <c r="A318" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="B318" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="C318" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D318" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E318" s="0" t="s">
+      <c r="D318" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E318" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+      <c r="A319" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="B319" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C319" s="0" t="s">
+      <c r="C319" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D319" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E319" s="0" t="s">
+      <c r="D319" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E319" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+      <c r="A320" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="B320" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="C320" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="D320" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E320" s="0" t="s">
+      <c r="D320" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E320" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+      <c r="A321" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="B321" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="C321" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D321" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E321" s="0" t="s">
+      <c r="D321" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E321" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+      <c r="A322" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B322" s="0" t="s">
+      <c r="B322" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="C322" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D322" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E322" s="0" t="s">
+      <c r="D322" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
+      <c r="A323" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B323" s="0" t="s">
+      <c r="B323" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C323" s="0" t="s">
+      <c r="C323" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D323" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E323" s="0" t="s">
+      <c r="D323" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E323" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
+      <c r="A324" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B324" s="0" t="s">
+      <c r="B324" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C324" s="0" t="s">
+      <c r="C324" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D324" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E324" s="0" t="s">
+      <c r="D324" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E324" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+      <c r="A325" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="B325" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C325" s="0" t="s">
+      <c r="C325" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D325" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E325" s="0" t="s">
+      <c r="D325" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E325" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+      <c r="A326" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="B326" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C326" s="0" t="s">
+      <c r="C326" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D326" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E326" s="0" t="s">
+      <c r="D326" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E326" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+      <c r="A327" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B327" s="0" t="s">
+      <c r="B327" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C327" s="0" t="s">
+      <c r="C327" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D327" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E327" s="0" t="s">
+      <c r="D327" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E327" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
+      <c r="A328" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B328" s="0" t="s">
+      <c r="B328" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C328" s="0" t="s">
+      <c r="C328" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D328" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E328" s="0" t="s">
+      <c r="D328" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E328" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
+      <c r="A329" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B329" s="0" t="s">
+      <c r="B329" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C329" s="0" t="s">
+      <c r="C329" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D329" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E329" s="0" t="s">
+      <c r="D329" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E329" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
+      <c r="A330" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B330" s="0" t="s">
+      <c r="B330" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C330" s="0" t="s">
+      <c r="C330" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D330" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E330" s="0" t="s">
+      <c r="D330" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+      <c r="A331" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="B331" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C331" s="0" t="s">
+      <c r="C331" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D331" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E331" s="0" t="s">
+      <c r="D331" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E331" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+      <c r="A332" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="B332" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C332" s="0" t="s">
+      <c r="C332" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D332" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E332" s="0" t="s">
+      <c r="D332" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E332" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+      <c r="A333" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B333" s="0" t="s">
+      <c r="B333" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C333" s="0" t="s">
+      <c r="C333" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D333" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E333" s="0" t="s">
+      <c r="D333" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E333" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+      <c r="A334" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="B334" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C334" s="0" t="s">
+      <c r="C334" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D334" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E334" s="0" t="s">
+      <c r="D334" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E334" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="A335" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="B335" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C335" s="0" t="s">
+      <c r="C335" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D335" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E335" s="0" t="s">
+      <c r="D335" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E335" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+      <c r="A336" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B336" s="0" t="s">
+      <c r="B336" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C336" s="0" t="s">
+      <c r="C336" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D336" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E336" s="0" t="s">
+      <c r="D336" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+      <c r="A337" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B337" s="0" t="s">
+      <c r="B337" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C337" s="0" t="s">
+      <c r="C337" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D337" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E337" s="0" t="s">
+      <c r="D337" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E337" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+      <c r="A338" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="B338" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C338" s="0" t="s">
+      <c r="C338" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D338" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E338" s="0" t="s">
+      <c r="D338" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E338" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+      <c r="A339" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B339" s="0" t="s">
+      <c r="B339" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C339" s="0" t="s">
+      <c r="C339" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D339" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E339" s="0" t="s">
+      <c r="D339" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E339" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+      <c r="A340" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C340" s="0" t="s">
+      <c r="C340" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D340" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E340" s="0" t="s">
+      <c r="D340" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E340" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
+      <c r="A341" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="B341" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C341" s="0" t="s">
+      <c r="C341" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D341" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E341" s="0" t="s">
+      <c r="D341" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E341" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
+      <c r="A342" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="B342" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C342" s="0" t="s">
+      <c r="C342" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D342" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E342" s="0" t="s">
+      <c r="D342" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E342" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+      <c r="A343" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="B343" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C343" s="0" t="s">
+      <c r="C343" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D343" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E343" s="0" t="s">
+      <c r="D343" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E343" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
+      <c r="A344" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B344" s="0" t="s">
+      <c r="B344" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C344" s="0" t="s">
+      <c r="C344" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D344" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E344" s="0" t="s">
+      <c r="D344" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E344" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
+      <c r="A345" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B345" s="0" t="s">
+      <c r="B345" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C345" s="0" t="s">
+      <c r="C345" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D345" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E345" s="0" t="s">
+      <c r="D345" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E345" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
+      <c r="A346" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B346" s="0" t="s">
+      <c r="B346" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C346" s="0" t="s">
+      <c r="C346" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D346" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E346" s="0" t="s">
+      <c r="D346" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E346" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+      <c r="A347" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B347" s="0" t="s">
+      <c r="B347" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C347" s="0" t="s">
+      <c r="C347" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D347" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E347" s="0" t="s">
+      <c r="D347" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E347" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
+      <c r="A348" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B348" s="0" t="s">
+      <c r="B348" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C348" s="0" t="s">
+      <c r="C348" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D348" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E348" s="0" t="s">
+      <c r="D348" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E348" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
+      <c r="A349" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B349" s="0" t="s">
+      <c r="B349" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C349" s="0" t="s">
+      <c r="C349" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D349" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E349" s="0" t="s">
+      <c r="D349" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E349" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+      <c r="A350" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="B350" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C350" s="0" t="s">
+      <c r="C350" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D350" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E350" s="0" t="s">
+      <c r="D350" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E350" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+      <c r="A351" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="B351" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C351" s="0" t="s">
+      <c r="C351" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D351" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E351" s="0" t="s">
+      <c r="D351" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E351" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+      <c r="A352" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B352" s="0" t="s">
+      <c r="B352" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C352" s="0" t="s">
+      <c r="C352" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D352" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E352" s="0" t="s">
+      <c r="D352" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
+      <c r="A353" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B353" s="0" t="s">
+      <c r="B353" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C353" s="0" t="s">
+      <c r="C353" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D353" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E353" s="0" t="s">
+      <c r="D353" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
+      <c r="A354" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B354" s="0" t="s">
+      <c r="B354" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C354" s="0" t="s">
+      <c r="C354" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D354" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E354" s="0" t="s">
+      <c r="D354" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
+      <c r="A355" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B355" s="0" t="s">
+      <c r="B355" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C355" s="0" t="s">
+      <c r="C355" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D355" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E355" s="0" t="s">
+      <c r="D355" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E355" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
+      <c r="A356" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B356" s="0" t="s">
+      <c r="B356" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C356" s="0" t="s">
+      <c r="C356" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D356" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E356" s="0" t="s">
+      <c r="D356" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E356" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+      <c r="A357" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B357" s="0" t="s">
+      <c r="B357" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C357" s="0" t="s">
+      <c r="C357" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D357" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E357" s="0" t="s">
+      <c r="D357" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E357" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+      <c r="A358" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B358" s="0" t="s">
+      <c r="B358" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C358" s="0" t="s">
+      <c r="C358" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D358" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E358" s="0" t="s">
+      <c r="D358" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E358" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
+      <c r="A359" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B359" s="0" t="s">
+      <c r="B359" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C359" s="0" t="s">
+      <c r="C359" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="D359" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E359" s="0" t="s">
+      <c r="D359" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
+      <c r="A360" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B360" s="0" t="s">
+      <c r="B360" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C360" s="0" t="s">
+      <c r="C360" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="D360" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E360" s="0" t="s">
+      <c r="D360" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E360" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
+      <c r="A361" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B361" s="0" t="s">
+      <c r="B361" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C361" s="0" t="s">
+      <c r="C361" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D361" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E361" s="0" t="s">
+      <c r="D361" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E361" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
+      <c r="A362" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B362" s="0" t="s">
+      <c r="B362" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C362" s="0" t="s">
+      <c r="C362" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D362" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E362" s="0" t="s">
+      <c r="D362" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E362" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
+      <c r="A363" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B363" s="0" t="s">
+      <c r="B363" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C363" s="0" t="s">
+      <c r="C363" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D363" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E363" s="0" t="s">
+      <c r="D363" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E363" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
+      <c r="A364" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B364" s="0" t="s">
+      <c r="B364" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C364" s="0" t="s">
+      <c r="C364" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D364" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E364" s="0" t="s">
+      <c r="D364" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E364" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
+      <c r="A365" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B365" s="0" t="s">
+      <c r="B365" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C365" s="0" t="s">
+      <c r="C365" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D365" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E365" s="0" t="s">
+      <c r="D365" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E365" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+      <c r="A366" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B366" s="0" t="s">
+      <c r="B366" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C366" s="0" t="s">
+      <c r="C366" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D366" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E366" s="0" t="s">
+      <c r="D366" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E366" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+      <c r="A367" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B367" s="0" t="s">
+      <c r="B367" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C367" s="0" t="s">
+      <c r="C367" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D367" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E367" s="0" t="s">
+      <c r="D367" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E367" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
+      <c r="A368" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B368" s="0" t="s">
+      <c r="B368" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C368" s="0" t="s">
+      <c r="C368" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D368" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E368" s="0" t="s">
+      <c r="D368" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E368" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
+      <c r="A369" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B369" s="0" t="s">
+      <c r="B369" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C369" s="0" t="s">
+      <c r="C369" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D369" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E369" s="0" t="s">
+      <c r="D369" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E369" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
+      <c r="A370" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B370" s="0" t="s">
+      <c r="B370" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C370" s="0" t="s">
+      <c r="C370" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D370" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E370" s="0" t="s">
+      <c r="D370" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E370" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
+      <c r="A371" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B371" s="0" t="s">
+      <c r="B371" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C371" s="0" t="s">
+      <c r="C371" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D371" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E371" s="0" t="s">
+      <c r="D371" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E371" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
+      <c r="A372" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B372" s="0" t="s">
+      <c r="B372" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C372" s="0" t="s">
+      <c r="C372" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D372" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E372" s="0" t="s">
+      <c r="D372" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E372" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
+      <c r="A373" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B373" s="0" t="s">
+      <c r="B373" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C373" s="0" t="s">
+      <c r="C373" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D373" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E373" s="0" t="s">
+      <c r="D373" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E373" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
+      <c r="A374" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B374" s="0" t="s">
+      <c r="B374" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C374" s="0" t="s">
+      <c r="C374" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D374" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E374" s="0" t="s">
+      <c r="D374" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E374" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
+      <c r="A375" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B375" s="0" t="s">
+      <c r="B375" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C375" s="0" t="s">
+      <c r="C375" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D375" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E375" s="0" t="s">
+      <c r="D375" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E375" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
+      <c r="A376" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B376" s="0" t="s">
+      <c r="B376" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C376" s="0" t="s">
+      <c r="C376" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D376" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E376" s="0" t="s">
+      <c r="D376" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E376" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
+      <c r="A377" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B377" s="0" t="s">
+      <c r="B377" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C377" s="0" t="s">
+      <c r="C377" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D377" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E377" s="0" t="s">
+      <c r="D377" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E377" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
+      <c r="A378" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B378" s="0" t="s">
+      <c r="B378" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C378" s="0" t="s">
+      <c r="C378" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D378" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E378" s="0" t="s">
+      <c r="D378" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E378" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
+      <c r="A379" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B379" s="0" t="s">
+      <c r="B379" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C379" s="0" t="s">
+      <c r="C379" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D379" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E379" s="0" t="s">
+      <c r="D379" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E379" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
+      <c r="A380" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B380" s="0" t="s">
+      <c r="B380" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C380" s="0" t="s">
+      <c r="C380" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D380" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E380" s="0" t="s">
+      <c r="D380" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E380" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
+      <c r="A381" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B381" s="0" t="s">
+      <c r="B381" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C381" s="0" t="s">
+      <c r="C381" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D381" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E381" s="0" t="s">
+      <c r="D381" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E381" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
+      <c r="A382" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B382" s="0" t="s">
+      <c r="B382" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C382" s="0" t="s">
+      <c r="C382" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D382" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E382" s="0" t="s">
+      <c r="D382" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E382" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
+      <c r="A383" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B383" s="0" t="s">
+      <c r="B383" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C383" s="0" t="s">
+      <c r="C383" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D383" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E383" s="0" t="s">
+      <c r="D383" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E383" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
+      <c r="A384" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B384" s="0" t="s">
+      <c r="B384" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C384" s="0" t="s">
+      <c r="C384" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D384" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E384" s="0" t="s">
+      <c r="D384" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E384" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
+      <c r="A385" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B385" s="0" t="s">
+      <c r="B385" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C385" s="0" t="s">
+      <c r="C385" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D385" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E385" s="0" t="s">
+      <c r="D385" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E385" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
+      <c r="A386" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B386" s="0" t="s">
+      <c r="B386" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C386" s="0" t="s">
+      <c r="C386" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D386" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E386" s="0" t="s">
+      <c r="D386" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E386" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
+      <c r="A387" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B387" s="0" t="s">
+      <c r="B387" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C387" s="0" t="s">
+      <c r="C387" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D387" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E387" s="0" t="s">
+      <c r="D387" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E387" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
+      <c r="A388" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B388" s="0" t="s">
+      <c r="B388" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C388" s="0" t="s">
+      <c r="C388" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D388" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E388" s="0" t="s">
+      <c r="D388" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E388" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
+      <c r="A389" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B389" s="0" t="s">
+      <c r="B389" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="C389" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D389" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E389" s="0" t="s">
+      <c r="D389" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E389" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
+      <c r="A390" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B390" s="0" t="s">
+      <c r="B390" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="C390" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="D390" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E390" s="0" t="s">
+      <c r="D390" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E390" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
+      <c r="A391" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B391" s="0" t="s">
+      <c r="B391" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="C391" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="D391" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E391" s="0" t="s">
+      <c r="D391" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E391" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
+      <c r="A392" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B392" s="0" t="s">
+      <c r="B392" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C392" s="0" t="s">
+      <c r="C392" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D392" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E392" s="0" t="s">
+      <c r="D392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E392" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
+      <c r="A393" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B393" s="0" t="s">
+      <c r="B393" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C393" s="0" t="s">
+      <c r="C393" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D393" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E393" s="0" t="s">
+      <c r="D393" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E393" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
+      <c r="A394" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B394" s="0" t="s">
+      <c r="B394" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C394" s="0" t="s">
+      <c r="C394" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="D394" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E394" s="0" t="s">
+      <c r="D394" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E394" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
+      <c r="A395" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B395" s="0" t="s">
+      <c r="B395" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="C395" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D395" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E395" s="0" t="s">
+      <c r="D395" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E395" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
+      <c r="A396" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B396" s="0" t="s">
+      <c r="B396" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="C396" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D396" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E396" s="0" t="s">
+      <c r="D396" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E396" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
+      <c r="A397" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B397" s="0" t="s">
+      <c r="B397" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="C397" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="D397" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E397" s="0" t="s">
+      <c r="D397" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E397" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
+      <c r="A398" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B398" s="0" t="s">
+      <c r="B398" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="C398" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="D398" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E398" s="0" t="s">
+      <c r="D398" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E398" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
+      <c r="A399" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B399" s="0" t="s">
+      <c r="B399" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C399" s="1" t="s">
+      <c r="C399" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="D399" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E399" s="0" t="s">
+      <c r="D399" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E399" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
+      <c r="A400" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B400" s="0" t="s">
+      <c r="B400" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C400" s="0" t="s">
+      <c r="C400" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="D400" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E400" s="0" t="s">
+      <c r="D400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E400" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+      <c r="A401" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B401" s="0" t="s">
+      <c r="B401" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C401" s="0" t="s">
+      <c r="C401" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D401" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E401" s="0" t="s">
+      <c r="D401" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E401" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
+      <c r="A402" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B402" s="0" t="s">
+      <c r="B402" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C402" s="0" t="s">
+      <c r="C402" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D402" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E402" s="0" t="s">
+      <c r="D402" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E402" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
+      <c r="A403" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B403" s="0" t="s">
+      <c r="B403" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C403" s="1" t="s">
+      <c r="C403" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="D403" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E403" s="0" t="s">
+      <c r="D403" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E403" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
+      <c r="A404" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B404" s="0" t="s">
+      <c r="B404" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="C404" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D404" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E404" s="0" t="s">
+      <c r="D404" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E404" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
+      <c r="A405" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B405" s="0" t="s">
+      <c r="B405" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C405" s="1" t="s">
+      <c r="C405" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D405" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E405" s="0" t="s">
+      <c r="D405" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E405" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B407" s="2"/>
+      <c r="B407" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/R/elsa/dados_elsa/Lucia_Andrade_variáveis.xlsx
+++ b/R/elsa/dados_elsa/Lucia_Andrade_variáveis.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Lucia_Andrade_variáveis_CSV" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Lucia_Andrade_variáveis_CSV" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2490,6 +2490,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2497,15 +2603,15 @@
   </sheetPr>
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B202" activeCellId="0" sqref="B202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="79.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="81.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.64"/>
   </cols>
@@ -2545,7 +2651,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -2562,7 +2668,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -2579,7 +2685,7 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="n">

--- a/R/elsa/dados_elsa/Lucia_Andrade_variáveis.xlsx
+++ b/R/elsa/dados_elsa/Lucia_Andrade_variáveis.xlsx
@@ -2603,8 +2603,8 @@
   </sheetPr>
   <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B383" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C403" activeCellId="0" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
